--- a/resources/ТО-1-2 2020.xlsx
+++ b/resources/ТО-1-2 2020.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexey\IdeaProjects\TextEditor\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\книги\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -162,7 +162,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,6 +211,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -224,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -302,9 +308,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -317,6 +320,15 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -330,6 +342,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -340,8 +355,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCCFFCC"/>
       <color rgb="FFFF99CC"/>
-      <color rgb="FFCCFFCC"/>
     </mruColors>
   </colors>
   <extLst>
@@ -620,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,25 +728,25 @@
     <row r="3" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="28">
+      <c r="A4" s="27">
         <v>10014</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -755,17 +770,23 @@
       <c r="H4" s="9">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I4" s="9"/>
+      <c r="I4" s="9">
+        <v>0.74</v>
+      </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
+      <c r="O4" s="17">
+        <v>0.74</v>
+      </c>
+      <c r="P4" s="17">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="28">
+      <c r="A5" s="27">
         <v>11118</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -789,17 +810,23 @@
       <c r="H5" s="9">
         <v>1.8</v>
       </c>
-      <c r="I5" s="9"/>
+      <c r="I5" s="9">
+        <v>1.21</v>
+      </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
+      <c r="O5" s="17">
+        <v>1.21</v>
+      </c>
+      <c r="P5" s="17">
+        <v>1.21</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="28">
+      <c r="A6" s="27">
         <v>10049</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -823,20 +850,26 @@
       <c r="H6" s="9">
         <v>1.2</v>
       </c>
-      <c r="I6" s="9"/>
+      <c r="I6" s="9">
+        <v>1.675</v>
+      </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
+      <c r="O6" s="17">
+        <v>1.675</v>
+      </c>
+      <c r="P6" s="17">
+        <v>1.675</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="32"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="25">
         <f t="shared" ref="C7:N7" si="0">SUM(C4:C6)</f>
         <v>3.7</v>
@@ -885,32 +918,32 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O7" s="31">
+      <c r="O7" s="33">
         <f>SUM(D7:N7)</f>
         <v>18.900000000000002</v>
       </c>
-      <c r="P7" s="32"/>
+      <c r="P7" s="34"/>
     </row>
     <row r="8" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
       <c r="O8" s="13"/>
       <c r="P8" s="13"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="29">
+      <c r="A9" s="28">
         <v>10332</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -932,21 +965,23 @@
       <c r="H9" s="9">
         <v>2.5</v>
       </c>
-      <c r="I9" s="9"/>
+      <c r="I9" s="9">
+        <v>2.2170000000000001</v>
+      </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="10"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
       <c r="O9" s="17">
-        <v>9</v>
+        <v>11.217000000000001</v>
       </c>
       <c r="P9" s="17">
-        <v>42.4</v>
+        <v>44.616999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="29">
+      <c r="A10" s="28">
         <v>10367</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -970,21 +1005,23 @@
       <c r="H10" s="9">
         <v>3.2</v>
       </c>
-      <c r="I10" s="9"/>
+      <c r="I10" s="9">
+        <v>0.41</v>
+      </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="17">
-        <v>4.0999999999999996</v>
+        <v>4.51</v>
       </c>
       <c r="P10" s="17">
-        <v>4.0999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="29">
+      <c r="A11" s="28">
         <v>10987</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1008,21 +1045,23 @@
       <c r="H11" s="14">
         <v>0</v>
       </c>
-      <c r="I11" s="9"/>
+      <c r="I11" s="9">
+        <v>3.0110000000000001</v>
+      </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="17">
-        <v>32</v>
+        <v>35.011000000000003</v>
       </c>
       <c r="P11" s="17">
-        <v>32</v>
+        <v>35.011000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="30">
+      <c r="A12" s="29">
         <v>159</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -1040,21 +1079,21 @@
       <c r="F12" s="9">
         <v>0.7</v>
       </c>
-      <c r="G12" s="36" t="s">
+      <c r="G12" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
       <c r="N12" s="9"/>
       <c r="O12" s="17"/>
       <c r="P12" s="17"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="29">
+      <c r="A13" s="28">
         <v>11606</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1074,21 +1113,23 @@
       <c r="H13" s="9">
         <v>2.4</v>
       </c>
-      <c r="I13" s="14"/>
+      <c r="I13" s="14">
+        <v>1.6339999999999999</v>
+      </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
       <c r="O13" s="17">
-        <v>5.0999999999999996</v>
+        <v>0.8</v>
       </c>
       <c r="P13" s="17">
-        <v>5.0999999999999996</v>
+        <v>6.734</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="29">
+      <c r="A14" s="28">
         <v>11614</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1110,21 +1151,23 @@
       <c r="H14" s="9">
         <v>2.9</v>
       </c>
-      <c r="I14" s="26"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="9"/>
+      <c r="I14" s="26">
+        <v>1.681</v>
+      </c>
+      <c r="J14" s="31"/>
+      <c r="K14" s="39"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
       <c r="O14" s="17">
-        <v>6.8</v>
+        <v>8.4809999999999999</v>
       </c>
       <c r="P14" s="17">
-        <v>23.4</v>
+        <v>25.081</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="29">
+      <c r="A15" s="28">
         <v>11622</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1148,21 +1191,23 @@
       <c r="H15" s="9">
         <v>5</v>
       </c>
-      <c r="I15" s="14"/>
+      <c r="I15" s="14">
+        <v>3.0859999999999999</v>
+      </c>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
       <c r="O15" s="23">
-        <v>7</v>
+        <v>1.5</v>
       </c>
       <c r="P15" s="17">
-        <v>7</v>
+        <v>10.086</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="30">
+      <c r="A16" s="29">
         <v>11721</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1191,14 +1236,14 @@
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
       <c r="O16" s="17">
-        <v>4.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P16" s="17">
         <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="29">
+      <c r="A17" s="28">
         <v>11738</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -1222,21 +1267,23 @@
       <c r="H17" s="18">
         <v>2.4</v>
       </c>
-      <c r="I17" s="9"/>
+      <c r="I17" s="9">
+        <v>2.0590000000000002</v>
+      </c>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
       <c r="O17" s="17">
-        <v>1.2</v>
+        <v>3.2590000000000003</v>
       </c>
       <c r="P17" s="17">
-        <v>1.2</v>
+        <v>3.2590000000000003</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="29">
+      <c r="A18" s="28">
         <v>11746</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -1260,21 +1307,23 @@
       <c r="H18" s="14">
         <v>4.0999999999999996</v>
       </c>
-      <c r="I18" s="26"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="12"/>
+      <c r="I18" s="26">
+        <v>3.51</v>
+      </c>
+      <c r="J18" s="15"/>
+      <c r="K18" s="31"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
       <c r="O18" s="17">
-        <v>2</v>
+        <v>5.51</v>
       </c>
       <c r="P18" s="17">
-        <v>20.6</v>
+        <v>24.11</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="29">
+      <c r="A19" s="28">
         <v>11754</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -1298,21 +1347,23 @@
       <c r="H19" s="9">
         <v>2.4</v>
       </c>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
+      <c r="I19" s="9">
+        <v>2.3159999999999998</v>
+      </c>
+      <c r="J19" s="14"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
       <c r="O19" s="17">
-        <v>3.5</v>
+        <v>5.8159999999999998</v>
       </c>
       <c r="P19" s="17">
-        <v>3.5</v>
+        <v>5.8159999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="29">
+      <c r="A20" s="28">
         <v>11771</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -1336,21 +1387,23 @@
       <c r="H20" s="14">
         <v>2</v>
       </c>
-      <c r="I20" s="9"/>
+      <c r="I20" s="9">
+        <v>2.1789999999999998</v>
+      </c>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
       <c r="O20" s="17">
-        <v>1</v>
+        <v>3.1789999999999998</v>
       </c>
       <c r="P20" s="17">
-        <v>9.6999999999999993</v>
+        <v>11.879</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="29">
+      <c r="A21" s="28">
         <v>11789</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -1374,21 +1427,23 @@
       <c r="H21" s="18">
         <v>3.3</v>
       </c>
-      <c r="I21" s="9"/>
+      <c r="I21" s="9">
+        <v>2.4670000000000001</v>
+      </c>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
       <c r="N21" s="10"/>
       <c r="O21" s="17">
-        <v>1.6</v>
+        <v>4.0670000000000002</v>
       </c>
       <c r="P21" s="17">
-        <v>1.6</v>
+        <v>4.0670000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="29">
+      <c r="A22" s="28">
         <v>11801</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -1412,21 +1467,23 @@
       <c r="H22" s="14">
         <v>3.4</v>
       </c>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
+      <c r="I22" s="14">
+        <v>5.758</v>
+      </c>
+      <c r="J22" s="31"/>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
       <c r="O22" s="17">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="P22" s="17">
-        <v>12.7</v>
+        <v>18.457999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="29">
+      <c r="A23" s="28">
         <v>11819</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -1450,21 +1507,23 @@
       <c r="H23" s="9">
         <v>2.6</v>
       </c>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
+      <c r="I23" s="9">
+        <v>2.6349999999999998</v>
+      </c>
+      <c r="J23" s="31"/>
+      <c r="K23" s="32"/>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
       <c r="N23" s="11"/>
       <c r="O23" s="17">
-        <v>3.6</v>
+        <v>6.2349999999999994</v>
       </c>
       <c r="P23" s="17">
-        <v>3.6</v>
+        <v>6.2349999999999994</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="29">
+      <c r="A24" s="28">
         <v>11827</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -1486,21 +1545,23 @@
       <c r="H24" s="9">
         <v>1.3</v>
       </c>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
+      <c r="I24" s="9">
+        <v>3.4550000000000001</v>
+      </c>
+      <c r="J24" s="14"/>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
       <c r="O24" s="17">
-        <v>2.8</v>
+        <v>6.2549999999999999</v>
       </c>
       <c r="P24" s="17">
-        <v>2.8</v>
+        <v>6.2549999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="29">
+      <c r="A25" s="28">
         <v>12238</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -1524,21 +1585,23 @@
       <c r="H25" s="14">
         <v>1.4</v>
       </c>
-      <c r="I25" s="9"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="9"/>
+      <c r="I25" s="9">
+        <v>2.3940000000000001</v>
+      </c>
+      <c r="J25" s="31"/>
+      <c r="K25" s="12"/>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
       <c r="O25" s="17">
-        <v>0.7</v>
+        <v>3.0940000000000003</v>
       </c>
       <c r="P25" s="17">
-        <v>19.5</v>
+        <v>21.893999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="29">
+      <c r="A26" s="28">
         <v>12246</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -1562,21 +1625,23 @@
       <c r="H26" s="14">
         <v>1.7</v>
       </c>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
+      <c r="I26" s="9">
+        <v>3.597</v>
+      </c>
+      <c r="J26" s="14"/>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
       <c r="O26" s="17">
-        <v>0.9</v>
+        <v>4.4969999999999999</v>
       </c>
       <c r="P26" s="17">
-        <v>10.5</v>
+        <v>14.097</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="29">
+      <c r="A27" s="28">
         <v>12254</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -1596,21 +1661,23 @@
         <v>2.4</v>
       </c>
       <c r="H27" s="14"/>
-      <c r="I27" s="9"/>
+      <c r="I27" s="9">
+        <v>2.7429999999999999</v>
+      </c>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
       <c r="O27" s="17">
-        <v>0</v>
+        <v>2.7429999999999999</v>
       </c>
       <c r="P27" s="17">
-        <v>7.3</v>
+        <v>10.042999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="30">
+      <c r="A28" s="29">
         <v>12262</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -1641,14 +1708,14 @@
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
       <c r="O28" s="17">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P28" s="17">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="29">
+      <c r="A29" s="28">
         <v>12271</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -1672,21 +1739,23 @@
       <c r="H29" s="9">
         <v>2.6</v>
       </c>
-      <c r="I29" s="15"/>
+      <c r="I29" s="15">
+        <v>0.16900000000000001</v>
+      </c>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
       <c r="O29" s="17">
-        <v>6.5</v>
+        <v>0.1</v>
       </c>
       <c r="P29" s="17">
-        <v>9.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="29">
+      <c r="A30" s="28">
         <v>12289</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -1706,21 +1775,23 @@
       <c r="H30" s="14">
         <v>2.5</v>
       </c>
-      <c r="I30" s="15"/>
+      <c r="I30" s="15">
+        <v>2.6120000000000001</v>
+      </c>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
       <c r="O30" s="17">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="P30" s="17">
-        <v>21</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="29">
+      <c r="A31" s="28">
         <v>12301</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -1742,21 +1813,23 @@
       <c r="H31" s="9">
         <v>0.9</v>
       </c>
-      <c r="I31" s="14"/>
+      <c r="I31" s="14">
+        <v>3.6869999999999998</v>
+      </c>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
       <c r="O31" s="17">
-        <v>5.0999999999999996</v>
+        <v>1.8</v>
       </c>
       <c r="P31" s="17">
-        <v>12</v>
+        <v>15.686999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="29">
+      <c r="A32" s="28">
         <v>12319</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -1780,21 +1853,23 @@
       <c r="H32" s="14">
         <v>3.7</v>
       </c>
-      <c r="I32" s="9"/>
+      <c r="I32" s="9">
+        <v>3.306</v>
+      </c>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
       <c r="O32" s="17">
-        <v>1.8</v>
+        <v>5.1059999999999999</v>
       </c>
       <c r="P32" s="17">
-        <v>17.899999999999999</v>
+        <v>21.206</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="29">
+      <c r="A33" s="28">
         <v>12327</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -1818,21 +1893,23 @@
       <c r="H33" s="14">
         <v>5.6</v>
       </c>
-      <c r="I33" s="9"/>
+      <c r="I33" s="9">
+        <v>5.468</v>
+      </c>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
       <c r="O33" s="17">
-        <v>2.8</v>
+        <v>8.2680000000000007</v>
       </c>
       <c r="P33" s="17">
-        <v>20.9</v>
+        <v>26.367999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="29">
+      <c r="A34" s="28">
         <v>12335</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -1856,21 +1933,23 @@
       <c r="H34" s="15">
         <v>3.7</v>
       </c>
-      <c r="I34" s="9"/>
+      <c r="I34" s="9">
+        <v>4.9850000000000003</v>
+      </c>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
       <c r="O34" s="17">
-        <v>0</v>
+        <v>4.9850000000000003</v>
       </c>
       <c r="P34" s="17">
-        <v>0</v>
+        <v>4.9850000000000003</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="29">
+      <c r="A35" s="28">
         <v>12343</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -1894,21 +1973,23 @@
       <c r="H35" s="15">
         <v>4.3</v>
       </c>
-      <c r="I35" s="9"/>
+      <c r="I35" s="9">
+        <v>4.2300000000000004</v>
+      </c>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
       <c r="O35" s="17">
-        <v>4.3</v>
+        <v>8.5300000000000011</v>
       </c>
       <c r="P35" s="17">
-        <v>4.3</v>
+        <v>8.5300000000000011</v>
       </c>
     </row>
     <row r="36" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="29">
+      <c r="A36" s="28">
         <v>12350</v>
       </c>
       <c r="B36" s="19" t="s">
@@ -1923,19 +2004,25 @@
       <c r="H36" s="20">
         <v>2.8</v>
       </c>
-      <c r="I36" s="27"/>
-      <c r="K36" s="20" t="s">
+      <c r="I36" s="14">
+        <v>4.867</v>
+      </c>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="O36" s="20">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="P36" s="20">
-        <v>2.8</v>
+      <c r="L36" s="30"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="30">
+        <v>2.5</v>
+      </c>
+      <c r="P36" s="30">
+        <v>7.6669999999999998</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="29">
+      <c r="A37" s="28">
         <v>13064</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -1959,21 +2046,23 @@
       <c r="H37" s="9">
         <v>3.1</v>
       </c>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
+      <c r="I37" s="9">
+        <v>1.631</v>
+      </c>
+      <c r="J37" s="14"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
       <c r="O37" s="17">
-        <v>4.5999999999999996</v>
+        <v>6.2309999999999999</v>
       </c>
       <c r="P37" s="17">
-        <v>4.5999999999999996</v>
+        <v>6.2309999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="29">
+      <c r="A38" s="28">
         <v>13072</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -1997,21 +2086,23 @@
       <c r="H38" s="23">
         <v>1.3</v>
       </c>
-      <c r="I38" s="9"/>
+      <c r="I38" s="9">
+        <v>1.2370000000000001</v>
+      </c>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
       <c r="O38" s="17">
-        <v>2</v>
+        <v>3.2370000000000001</v>
       </c>
       <c r="P38" s="17">
-        <v>18.7</v>
+        <v>19.936999999999998</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="29">
+      <c r="A39" s="28">
         <v>14915</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -2035,24 +2126,26 @@
       <c r="H39" s="9">
         <v>0.5</v>
       </c>
-      <c r="I39" s="9"/>
+      <c r="I39" s="9">
+        <v>0.438</v>
+      </c>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
       <c r="O39" s="17">
-        <v>3.4</v>
+        <v>3.8380000000000001</v>
       </c>
       <c r="P39" s="17">
-        <v>3.4</v>
+        <v>3.8380000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="33" t="s">
+      <c r="A40" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="32"/>
+      <c r="B40" s="34"/>
       <c r="C40" s="17">
         <f t="shared" ref="C40:N40" si="1">SUM(C9:C39)</f>
         <v>48.400000000000006</v>
@@ -2079,7 +2172,7 @@
       </c>
       <c r="I40" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>77.781999999999996</v>
       </c>
       <c r="J40" s="17">
         <f t="shared" si="1"/>
@@ -2101,11 +2194,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O40" s="31">
+      <c r="O40" s="33">
         <f>SUM(C40:N40)</f>
-        <v>389.6</v>
-      </c>
-      <c r="P40" s="32"/>
+        <v>467.38200000000001</v>
+      </c>
+      <c r="P40" s="34"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
@@ -2125,11 +2218,11 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
-      <c r="B42" s="33" t="s">
+      <c r="B42" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
@@ -2143,11 +2236,11 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
-      <c r="B43" s="33" t="s">
+      <c r="B43" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
@@ -2161,11 +2254,11 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
-      <c r="B44" s="33" t="s">
+      <c r="B44" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
@@ -2179,11 +2272,11 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
-      <c r="B45" s="33" t="s">
+      <c r="B45" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>

--- a/resources/ТО-1-2 2020.xlsx
+++ b/resources/ТО-1-2 2020.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexey\IdeaProjects\TextEditor\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\книги\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="30">
   <si>
     <t xml:space="preserve">  Гар.№</t>
   </si>
@@ -162,7 +162,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,6 +211,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -224,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -302,9 +314,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -312,6 +321,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -340,8 +367,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCCFFCC"/>
       <color rgb="FFFF99CC"/>
-      <color rgb="FFCCFFCC"/>
     </mruColors>
   </colors>
   <extLst>
@@ -620,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,25 +740,25 @@
     <row r="3" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="28">
+      <c r="A4" s="27">
         <v>10014</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -755,17 +782,27 @@
       <c r="H4" s="9">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
+      <c r="I4" s="9">
+        <v>0.74</v>
+      </c>
+      <c r="J4" s="9">
+        <v>1.1990000000000001</v>
+      </c>
+      <c r="K4" s="9">
+        <v>1.173</v>
+      </c>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
+      <c r="O4" s="17">
+        <v>3.1120000000000001</v>
+      </c>
+      <c r="P4" s="17">
+        <v>3.1120000000000001</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="28">
+      <c r="A5" s="27">
         <v>11118</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -789,17 +826,27 @@
       <c r="H5" s="9">
         <v>1.8</v>
       </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
+      <c r="I5" s="9">
+        <v>1.21</v>
+      </c>
+      <c r="J5" s="9">
+        <v>1.21</v>
+      </c>
+      <c r="K5" s="9">
+        <v>1.21</v>
+      </c>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
+      <c r="O5" s="17">
+        <v>3.63</v>
+      </c>
+      <c r="P5" s="17">
+        <v>3.63</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="28">
+      <c r="A6" s="27">
         <v>10049</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -823,20 +870,30 @@
       <c r="H6" s="9">
         <v>1.2</v>
       </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
+      <c r="I6" s="9">
+        <v>1.675</v>
+      </c>
+      <c r="J6" s="9">
+        <v>1.1639999999999999</v>
+      </c>
+      <c r="K6" s="9">
+        <v>1.6559999999999999</v>
+      </c>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
+      <c r="O6" s="17">
+        <v>4.4950000000000001</v>
+      </c>
+      <c r="P6" s="17">
+        <v>4.4950000000000001</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="32"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="25">
         <f t="shared" ref="C7:N7" si="0">SUM(C4:C6)</f>
         <v>3.7</v>
@@ -862,12 +919,10 @@
         <v>4.1000000000000005</v>
       </c>
       <c r="I7" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="J7" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="K7" s="25">
         <f t="shared" si="0"/>
@@ -885,32 +940,32 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O7" s="31">
+      <c r="O7" s="36">
         <f>SUM(D7:N7)</f>
-        <v>18.900000000000002</v>
-      </c>
-      <c r="P7" s="32"/>
+        <v>26.100000000000005</v>
+      </c>
+      <c r="P7" s="37"/>
     </row>
     <row r="8" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
       <c r="O8" s="13"/>
       <c r="P8" s="13"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="29">
+      <c r="A9" s="28">
         <v>10332</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -932,21 +987,27 @@
       <c r="H9" s="9">
         <v>2.5</v>
       </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
+      <c r="I9" s="9">
+        <v>2.2170000000000001</v>
+      </c>
+      <c r="J9" s="9">
+        <v>1.829</v>
+      </c>
+      <c r="K9" s="9">
+        <v>1.4970000000000001</v>
+      </c>
       <c r="L9" s="10"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
       <c r="O9" s="17">
-        <v>9</v>
+        <v>14.543000000000001</v>
       </c>
       <c r="P9" s="17">
-        <v>42.4</v>
+        <v>47.942999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="29">
+      <c r="A10" s="28">
         <v>10367</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -970,21 +1031,27 @@
       <c r="H10" s="9">
         <v>3.2</v>
       </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
+      <c r="I10" s="9">
+        <v>0.41</v>
+      </c>
+      <c r="J10" s="9">
+        <v>1.5720000000000001</v>
+      </c>
+      <c r="K10" s="9">
+        <v>3.36</v>
+      </c>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="17">
-        <v>4.0999999999999996</v>
+        <v>9.4420000000000002</v>
       </c>
       <c r="P10" s="17">
-        <v>4.0999999999999996</v>
+        <v>9.4420000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="29">
+      <c r="A11" s="28">
         <v>10987</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1008,21 +1075,27 @@
       <c r="H11" s="14">
         <v>0</v>
       </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
+      <c r="I11" s="9">
+        <v>3.0110000000000001</v>
+      </c>
+      <c r="J11" s="9">
+        <v>1.7929999999999999</v>
+      </c>
+      <c r="K11" s="9">
+        <v>1.6679999999999999</v>
+      </c>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="17">
-        <v>32</v>
+        <v>38.472000000000001</v>
       </c>
       <c r="P11" s="17">
-        <v>32</v>
+        <v>38.472000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="30">
+      <c r="A12" s="29">
         <v>159</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -1040,21 +1113,21 @@
       <c r="F12" s="9">
         <v>0.7</v>
       </c>
-      <c r="G12" s="36" t="s">
+      <c r="G12" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
       <c r="N12" s="9"/>
       <c r="O12" s="17"/>
       <c r="P12" s="17"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="29">
+      <c r="A13" s="28">
         <v>11606</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1074,21 +1147,27 @@
       <c r="H13" s="9">
         <v>2.4</v>
       </c>
-      <c r="I13" s="14"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
+      <c r="I13" s="14">
+        <v>1.6339999999999999</v>
+      </c>
+      <c r="J13" s="9">
+        <v>1.8320000000000001</v>
+      </c>
+      <c r="K13" s="9">
+        <v>2.2879999999999998</v>
+      </c>
       <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
+      <c r="M13" s="34"/>
       <c r="N13" s="9"/>
       <c r="O13" s="17">
-        <v>5.0999999999999996</v>
+        <v>4.92</v>
       </c>
       <c r="P13" s="17">
-        <v>5.0999999999999996</v>
+        <v>10.854000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="29">
+      <c r="A14" s="28">
         <v>11614</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1110,21 +1189,27 @@
       <c r="H14" s="9">
         <v>2.9</v>
       </c>
-      <c r="I14" s="26"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="9"/>
+      <c r="I14" s="26">
+        <v>1.681</v>
+      </c>
+      <c r="J14" s="31">
+        <v>2.1549999999999998</v>
+      </c>
+      <c r="K14" s="21">
+        <v>4.1989999999999998</v>
+      </c>
       <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
+      <c r="M14" s="12"/>
       <c r="N14" s="9"/>
       <c r="O14" s="17">
-        <v>6.8</v>
+        <v>14.834999999999999</v>
       </c>
       <c r="P14" s="17">
-        <v>23.4</v>
+        <v>31.435000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="29">
+      <c r="A15" s="28">
         <v>11622</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1148,21 +1233,27 @@
       <c r="H15" s="9">
         <v>5</v>
       </c>
-      <c r="I15" s="14"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
+      <c r="I15" s="14">
+        <v>3.0859999999999999</v>
+      </c>
+      <c r="J15" s="9">
+        <v>6.34</v>
+      </c>
+      <c r="K15" s="14">
+        <v>4.2229999999999999</v>
+      </c>
       <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
+      <c r="M15" s="12"/>
       <c r="N15" s="9"/>
       <c r="O15" s="23">
-        <v>7</v>
+        <v>12.062999999999999</v>
       </c>
       <c r="P15" s="17">
-        <v>7</v>
+        <v>20.649000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="30">
+      <c r="A16" s="29">
         <v>11721</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1185,20 +1276,24 @@
         <v>3</v>
       </c>
       <c r="I16" s="14"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
+      <c r="J16" s="9">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="K16" s="9">
+        <v>1.5580000000000001</v>
+      </c>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
       <c r="O16" s="17">
-        <v>4.4000000000000004</v>
+        <v>2.1190000000000002</v>
       </c>
       <c r="P16" s="17">
-        <v>4.4000000000000004</v>
+        <v>6.5190000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="29">
+      <c r="A17" s="28">
         <v>11738</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -1222,21 +1317,27 @@
       <c r="H17" s="18">
         <v>2.4</v>
       </c>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
+      <c r="I17" s="9">
+        <v>2.0590000000000002</v>
+      </c>
+      <c r="J17" s="9">
+        <v>2.125</v>
+      </c>
+      <c r="K17" s="21">
+        <v>0.76500000000000001</v>
+      </c>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
       <c r="O17" s="17">
-        <v>1.2</v>
+        <v>6.149</v>
       </c>
       <c r="P17" s="17">
-        <v>1.2</v>
+        <v>6.149</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="29">
+      <c r="A18" s="28">
         <v>11746</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -1260,21 +1361,27 @@
       <c r="H18" s="14">
         <v>4.0999999999999996</v>
       </c>
-      <c r="I18" s="26"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="12"/>
+      <c r="I18" s="26">
+        <v>3.51</v>
+      </c>
+      <c r="J18" s="15">
+        <v>1.1850000000000001</v>
+      </c>
+      <c r="K18" s="33">
+        <v>3.871</v>
+      </c>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
       <c r="O18" s="17">
-        <v>2</v>
+        <v>4.4710000000000001</v>
       </c>
       <c r="P18" s="17">
-        <v>20.6</v>
+        <v>4.4710000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="29">
+      <c r="A19" s="28">
         <v>11754</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -1298,21 +1405,27 @@
       <c r="H19" s="9">
         <v>2.4</v>
       </c>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
+      <c r="I19" s="9">
+        <v>2.3159999999999998</v>
+      </c>
+      <c r="J19" s="14">
+        <v>2.71</v>
+      </c>
+      <c r="K19" s="33">
+        <v>1.532</v>
+      </c>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
       <c r="O19" s="17">
-        <v>3.5</v>
+        <v>2.9319999999999999</v>
       </c>
       <c r="P19" s="17">
-        <v>3.5</v>
+        <v>10.058</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="29">
+      <c r="A20" s="28">
         <v>11771</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -1336,21 +1449,27 @@
       <c r="H20" s="14">
         <v>2</v>
       </c>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
+      <c r="I20" s="9">
+        <v>2.1789999999999998</v>
+      </c>
+      <c r="J20" s="9">
+        <v>2.258</v>
+      </c>
+      <c r="K20" s="14">
+        <v>1.782</v>
+      </c>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
       <c r="O20" s="17">
-        <v>1</v>
+        <v>7.2189999999999994</v>
       </c>
       <c r="P20" s="17">
-        <v>9.6999999999999993</v>
+        <v>15.919</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="29">
+      <c r="A21" s="28">
         <v>11789</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -1371,24 +1490,30 @@
       <c r="G21" s="9">
         <v>2.4</v>
       </c>
-      <c r="H21" s="18">
+      <c r="H21" s="21">
         <v>3.3</v>
       </c>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
+      <c r="I21" s="9">
+        <v>2.4670000000000001</v>
+      </c>
+      <c r="J21" s="9">
+        <v>1.302</v>
+      </c>
+      <c r="K21" s="15">
+        <v>1.0900000000000001</v>
+      </c>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
       <c r="N21" s="10"/>
       <c r="O21" s="17">
-        <v>1.6</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="P21" s="17">
-        <v>1.6</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="29">
+      <c r="A22" s="28">
         <v>11801</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -1412,21 +1537,25 @@
       <c r="H22" s="14">
         <v>3.4</v>
       </c>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
+      <c r="I22" s="14">
+        <v>5.758</v>
+      </c>
+      <c r="J22" s="31">
+        <v>2.7810000000000001</v>
+      </c>
       <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
+      <c r="L22" s="15"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
       <c r="O22" s="17">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="P22" s="17">
-        <v>12.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="29">
+      <c r="A23" s="28">
         <v>11819</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -1450,21 +1579,27 @@
       <c r="H23" s="9">
         <v>2.6</v>
       </c>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
+      <c r="I23" s="9">
+        <v>2.6349999999999998</v>
+      </c>
+      <c r="J23" s="31">
+        <v>2.5310000000000001</v>
+      </c>
+      <c r="K23" s="14">
+        <v>2.2589999999999999</v>
+      </c>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
       <c r="N23" s="11"/>
       <c r="O23" s="17">
-        <v>3.6</v>
+        <v>11.025</v>
       </c>
       <c r="P23" s="17">
-        <v>3.6</v>
+        <v>19.359000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="29">
+      <c r="A24" s="28">
         <v>11827</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -1486,21 +1621,27 @@
       <c r="H24" s="9">
         <v>1.3</v>
       </c>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
+      <c r="I24" s="9">
+        <v>3.4550000000000001</v>
+      </c>
+      <c r="J24" s="14">
+        <v>3.113</v>
+      </c>
+      <c r="K24" s="9">
+        <v>4.3940000000000001</v>
+      </c>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
       <c r="O24" s="17">
-        <v>2.8</v>
+        <v>5.9939999999999998</v>
       </c>
       <c r="P24" s="17">
-        <v>2.8</v>
+        <v>13.762</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="29">
+      <c r="A25" s="28">
         <v>12238</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -1524,21 +1665,27 @@
       <c r="H25" s="14">
         <v>1.4</v>
       </c>
-      <c r="I25" s="9"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="9"/>
+      <c r="I25" s="9">
+        <v>2.3940000000000001</v>
+      </c>
+      <c r="J25" s="31">
+        <v>4.8049999999999997</v>
+      </c>
+      <c r="K25" s="34">
+        <v>2.19</v>
+      </c>
       <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
+      <c r="M25" s="12"/>
       <c r="N25" s="9"/>
       <c r="O25" s="17">
-        <v>0.7</v>
+        <v>10.089</v>
       </c>
       <c r="P25" s="17">
-        <v>19.5</v>
+        <v>28.888999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="29">
+      <c r="A26" s="28">
         <v>12246</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -1562,21 +1709,27 @@
       <c r="H26" s="14">
         <v>1.7</v>
       </c>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
+      <c r="I26" s="9">
+        <v>3.597</v>
+      </c>
+      <c r="J26" s="14">
+        <v>2.573</v>
+      </c>
+      <c r="K26" s="9">
+        <v>1.05</v>
+      </c>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
       <c r="O26" s="17">
-        <v>0.9</v>
+        <v>2.35</v>
       </c>
       <c r="P26" s="17">
-        <v>10.5</v>
+        <v>17.72</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="29">
+      <c r="A27" s="28">
         <v>12254</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -1596,21 +1749,27 @@
         <v>2.4</v>
       </c>
       <c r="H27" s="14"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
+      <c r="I27" s="9">
+        <v>2.7429999999999999</v>
+      </c>
+      <c r="J27" s="9">
+        <v>3.2559999999999998</v>
+      </c>
+      <c r="K27" s="14">
+        <v>2.403</v>
+      </c>
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
       <c r="O27" s="17">
-        <v>0</v>
+        <v>8.4019999999999992</v>
       </c>
       <c r="P27" s="17">
-        <v>7.3</v>
+        <v>15.702</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="30">
+      <c r="A28" s="29">
         <v>12262</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -1635,20 +1794,24 @@
         <v>1.4</v>
       </c>
       <c r="I28" s="15"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
+      <c r="J28" s="9">
+        <v>2.4350000000000001</v>
+      </c>
+      <c r="K28" s="9">
+        <v>2.58</v>
+      </c>
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
       <c r="O28" s="17">
-        <v>6</v>
+        <v>5.0150000000000006</v>
       </c>
       <c r="P28" s="17">
-        <v>14</v>
+        <v>5.0150000000000006</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="29">
+      <c r="A29" s="28">
         <v>12271</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -1672,21 +1835,27 @@
       <c r="H29" s="9">
         <v>2.6</v>
       </c>
-      <c r="I29" s="15"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
+      <c r="I29" s="15">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="J29" s="9">
+        <v>3.0289999999999999</v>
+      </c>
+      <c r="K29" s="9">
+        <v>1.04</v>
+      </c>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
       <c r="O29" s="17">
-        <v>6.5</v>
+        <v>4.1690000000000005</v>
       </c>
       <c r="P29" s="17">
-        <v>9.5</v>
+        <v>4.1690000000000005</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="29">
+      <c r="A30" s="28">
         <v>12289</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -1706,21 +1875,27 @@
       <c r="H30" s="14">
         <v>2.5</v>
       </c>
-      <c r="I30" s="15"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
+      <c r="I30" s="15">
+        <v>2.6120000000000001</v>
+      </c>
+      <c r="J30" s="9">
+        <v>5.0149999999999997</v>
+      </c>
+      <c r="K30" s="14">
+        <v>1.5740000000000001</v>
+      </c>
       <c r="L30" s="9"/>
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
       <c r="O30" s="17">
-        <v>1.2</v>
+        <v>7.8889999999999993</v>
       </c>
       <c r="P30" s="17">
-        <v>21</v>
+        <v>7.8889999999999993</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="29">
+      <c r="A31" s="28">
         <v>12301</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -1742,21 +1917,25 @@
       <c r="H31" s="9">
         <v>0.9</v>
       </c>
-      <c r="I31" s="14"/>
-      <c r="J31" s="9"/>
+      <c r="I31" s="14">
+        <v>3.6869999999999998</v>
+      </c>
+      <c r="J31" s="9">
+        <v>1.522</v>
+      </c>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
       <c r="O31" s="17">
-        <v>5.0999999999999996</v>
+        <v>3.3220000000000001</v>
       </c>
       <c r="P31" s="17">
-        <v>12</v>
+        <v>17.209</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="29">
+      <c r="A32" s="28">
         <v>12319</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -1780,21 +1959,27 @@
       <c r="H32" s="14">
         <v>3.7</v>
       </c>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
+      <c r="I32" s="9">
+        <v>3.306</v>
+      </c>
+      <c r="J32" s="9">
+        <v>6.4889999999999999</v>
+      </c>
+      <c r="K32" s="34">
+        <v>3.3940000000000001</v>
+      </c>
+      <c r="L32" s="32"/>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
       <c r="O32" s="17">
-        <v>1.8</v>
+        <v>14.988999999999999</v>
       </c>
       <c r="P32" s="17">
-        <v>17.899999999999999</v>
+        <v>31.088999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="29">
+      <c r="A33" s="28">
         <v>12327</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -1818,21 +2003,27 @@
       <c r="H33" s="14">
         <v>5.6</v>
       </c>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
+      <c r="I33" s="9">
+        <v>5.468</v>
+      </c>
+      <c r="J33" s="9">
+        <v>6.218</v>
+      </c>
+      <c r="K33" s="35">
+        <v>3.7149999999999999</v>
+      </c>
+      <c r="L33" s="15"/>
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
       <c r="O33" s="17">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="P33" s="17">
-        <v>20.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="29">
+      <c r="A34" s="28">
         <v>12335</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -1856,21 +2047,27 @@
       <c r="H34" s="15">
         <v>3.7</v>
       </c>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
+      <c r="I34" s="9">
+        <v>4.9850000000000003</v>
+      </c>
+      <c r="J34" s="9">
+        <v>6.1479999999999997</v>
+      </c>
+      <c r="K34" s="14">
+        <v>4.7430000000000003</v>
+      </c>
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
       <c r="O34" s="17">
-        <v>0</v>
+        <v>15.875999999999999</v>
       </c>
       <c r="P34" s="17">
-        <v>0</v>
+        <v>15.875999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="29">
+      <c r="A35" s="28">
         <v>12343</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -1894,21 +2091,27 @@
       <c r="H35" s="15">
         <v>4.3</v>
       </c>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
+      <c r="I35" s="9">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="J35" s="9">
+        <v>4.4770000000000003</v>
+      </c>
+      <c r="K35" s="9">
+        <v>4.3259999999999996</v>
+      </c>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
       <c r="O35" s="17">
-        <v>4.3</v>
+        <v>12.856000000000002</v>
       </c>
       <c r="P35" s="17">
-        <v>4.3</v>
+        <v>12.856000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="29">
+      <c r="A36" s="28">
         <v>12350</v>
       </c>
       <c r="B36" s="19" t="s">
@@ -1923,19 +2126,27 @@
       <c r="H36" s="20">
         <v>2.8</v>
       </c>
-      <c r="I36" s="27"/>
-      <c r="K36" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="O36" s="20">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="P36" s="20">
-        <v>2.8</v>
+      <c r="I36" s="14">
+        <v>4.867</v>
+      </c>
+      <c r="J36" s="30">
+        <v>5.8440000000000003</v>
+      </c>
+      <c r="K36" s="30">
+        <v>4.33</v>
+      </c>
+      <c r="L36" s="30"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="30">
+        <v>12.674000000000001</v>
+      </c>
+      <c r="P36" s="30">
+        <v>17.841000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="29">
+      <c r="A37" s="28">
         <v>13064</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -1959,21 +2170,27 @@
       <c r="H37" s="9">
         <v>3.1</v>
       </c>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
+      <c r="I37" s="9">
+        <v>1.631</v>
+      </c>
+      <c r="J37" s="14">
+        <v>2.6789999999999998</v>
+      </c>
+      <c r="K37" s="33">
+        <v>2.0259999999999998</v>
+      </c>
       <c r="L37" s="9"/>
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
       <c r="O37" s="17">
-        <v>4.5999999999999996</v>
+        <v>3.4259999999999997</v>
       </c>
       <c r="P37" s="17">
-        <v>4.5999999999999996</v>
+        <v>10.936</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="29">
+      <c r="A38" s="28">
         <v>13072</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -1997,21 +2214,27 @@
       <c r="H38" s="23">
         <v>1.3</v>
       </c>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
+      <c r="I38" s="9">
+        <v>1.2370000000000001</v>
+      </c>
+      <c r="J38" s="9">
+        <v>1.712</v>
+      </c>
+      <c r="K38" s="9">
+        <v>1.278</v>
+      </c>
       <c r="L38" s="9"/>
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
       <c r="O38" s="17">
-        <v>2</v>
+        <v>6.2270000000000003</v>
       </c>
       <c r="P38" s="17">
-        <v>18.7</v>
+        <v>22.926999999999996</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="29">
+      <c r="A39" s="28">
         <v>14915</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -2035,24 +2258,30 @@
       <c r="H39" s="9">
         <v>0.5</v>
       </c>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
+      <c r="I39" s="9">
+        <v>0.438</v>
+      </c>
+      <c r="J39" s="9">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="K39" s="9">
+        <v>0.4</v>
+      </c>
       <c r="L39" s="9"/>
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
       <c r="O39" s="17">
-        <v>3.4</v>
+        <v>4.8460000000000001</v>
       </c>
       <c r="P39" s="17">
-        <v>3.4</v>
+        <v>4.8460000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="33" t="s">
+      <c r="A40" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="32"/>
+      <c r="B40" s="37"/>
       <c r="C40" s="17">
         <f t="shared" ref="C40:N40" si="1">SUM(C9:C39)</f>
         <v>48.400000000000006</v>
@@ -2079,15 +2308,15 @@
       </c>
       <c r="I40" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>77.781999999999996</v>
       </c>
       <c r="J40" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>90.897000000000006</v>
       </c>
       <c r="K40" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>69.534999999999997</v>
       </c>
       <c r="L40" s="17">
         <f t="shared" si="1"/>
@@ -2101,11 +2330,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O40" s="31">
+      <c r="O40" s="36">
         <f>SUM(C40:N40)</f>
-        <v>389.6</v>
-      </c>
-      <c r="P40" s="32"/>
+        <v>627.81399999999996</v>
+      </c>
+      <c r="P40" s="37"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
@@ -2125,11 +2354,11 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
-      <c r="B42" s="33" t="s">
+      <c r="B42" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
@@ -2143,11 +2372,11 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
-      <c r="B43" s="33" t="s">
+      <c r="B43" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
@@ -2161,11 +2390,11 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
-      <c r="B44" s="33" t="s">
+      <c r="B44" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
@@ -2179,11 +2408,11 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
-      <c r="B45" s="33" t="s">
+      <c r="B45" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>

--- a/resources/ТО-1-2 2020.xlsx
+++ b/resources/ТО-1-2 2020.xlsx
@@ -123,7 +123,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,12 +139,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial Cyr"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial Cyr"/>
       <charset val="204"/>
     </font>
@@ -195,12 +189,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF99CC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -213,13 +201,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFF99CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -236,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -268,95 +262,101 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -647,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,10 +712,10 @@
       <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="O1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="14" t="s">
         <v>26</v>
       </c>
     </row>
@@ -734,31 +734,31 @@
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
     </row>
     <row r="3" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="27">
+      <c r="A4" s="25">
         <v>10014</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -791,18 +791,20 @@
       <c r="K4" s="9">
         <v>1.173</v>
       </c>
-      <c r="L4" s="9"/>
+      <c r="L4" s="9">
+        <v>1.0329999999999999</v>
+      </c>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
-      <c r="O4" s="17">
-        <v>3.1120000000000001</v>
-      </c>
-      <c r="P4" s="17">
-        <v>3.1120000000000001</v>
+      <c r="O4" s="15">
+        <v>4.1449999999999996</v>
+      </c>
+      <c r="P4" s="15">
+        <v>4.1449999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="27">
+      <c r="A5" s="25">
         <v>11118</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -835,18 +837,22 @@
       <c r="K5" s="9">
         <v>1.21</v>
       </c>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
+      <c r="L5" s="9">
+        <v>1.1910000000000001</v>
+      </c>
+      <c r="M5" s="9">
+        <v>0.66</v>
+      </c>
       <c r="N5" s="9"/>
-      <c r="O5" s="17">
-        <v>3.63</v>
-      </c>
-      <c r="P5" s="17">
-        <v>3.63</v>
+      <c r="O5" s="15">
+        <v>5.4809999999999999</v>
+      </c>
+      <c r="P5" s="15">
+        <v>5.4809999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="27">
+      <c r="A6" s="25">
         <v>10049</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -879,93 +885,97 @@
       <c r="K6" s="9">
         <v>1.6559999999999999</v>
       </c>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
+      <c r="L6" s="9">
+        <v>1.464</v>
+      </c>
+      <c r="M6" s="9">
+        <v>0.86</v>
+      </c>
       <c r="N6" s="9"/>
-      <c r="O6" s="17">
-        <v>4.4950000000000001</v>
-      </c>
-      <c r="P6" s="17">
-        <v>4.4950000000000001</v>
+      <c r="O6" s="15">
+        <v>6.819</v>
+      </c>
+      <c r="P6" s="15">
+        <v>6.819</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="25">
+      <c r="B7" s="35"/>
+      <c r="C7" s="23">
         <f t="shared" ref="C7:N7" si="0">SUM(C4:C6)</f>
         <v>3.7</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="23">
         <f t="shared" si="0"/>
         <v>3.9000000000000004</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="23">
         <f t="shared" si="0"/>
         <v>4.2</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="23">
         <f t="shared" si="0"/>
         <v>3.5999999999999996</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="23">
         <f t="shared" si="0"/>
         <v>3.1</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="23">
         <f t="shared" si="0"/>
         <v>4.1000000000000005</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="23">
         <v>3.6</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7" s="23">
         <v>3.6</v>
       </c>
-      <c r="K7" s="25">
+      <c r="K7" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L7" s="25">
+      <c r="L7" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M7" s="25">
+      <c r="M7" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N7" s="25">
+      <c r="N7" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O7" s="36">
+      <c r="O7" s="34">
         <f>SUM(D7:N7)</f>
         <v>26.100000000000005</v>
       </c>
-      <c r="P7" s="37"/>
+      <c r="P7" s="35"/>
     </row>
     <row r="8" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="28">
+      <c r="A9" s="26">
         <v>10332</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -996,18 +1006,22 @@
       <c r="K9" s="9">
         <v>1.4970000000000001</v>
       </c>
-      <c r="L9" s="10"/>
-      <c r="M9" s="9"/>
+      <c r="L9" s="10">
+        <v>1.7190000000000001</v>
+      </c>
+      <c r="M9" s="9">
+        <v>2.048</v>
+      </c>
       <c r="N9" s="9"/>
-      <c r="O9" s="17">
-        <v>14.543000000000001</v>
-      </c>
-      <c r="P9" s="17">
-        <v>47.942999999999998</v>
+      <c r="O9" s="15">
+        <v>18.310000000000002</v>
+      </c>
+      <c r="P9" s="15">
+        <v>51.71</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="28">
+      <c r="A10" s="26">
         <v>10367</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1022,7 +1036,7 @@
       <c r="E10" s="9">
         <v>3.6</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="13">
         <v>0.6</v>
       </c>
       <c r="G10" s="9">
@@ -1040,18 +1054,22 @@
       <c r="K10" s="9">
         <v>3.36</v>
       </c>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
+      <c r="L10" s="9">
+        <v>2.7429999999999999</v>
+      </c>
+      <c r="M10" s="9">
+        <v>1.88</v>
+      </c>
       <c r="N10" s="9"/>
-      <c r="O10" s="17">
-        <v>9.4420000000000002</v>
-      </c>
-      <c r="P10" s="17">
-        <v>9.4420000000000002</v>
+      <c r="O10" s="15">
+        <v>14.065000000000001</v>
+      </c>
+      <c r="P10" s="15">
+        <v>14.065000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="28">
+      <c r="A11" s="26">
         <v>10987</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1072,7 +1090,7 @@
       <c r="G11" s="9">
         <v>1.5</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="12">
         <v>0</v>
       </c>
       <c r="I11" s="9">
@@ -1084,18 +1102,22 @@
       <c r="K11" s="9">
         <v>1.6679999999999999</v>
       </c>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
+      <c r="L11" s="9">
+        <v>2.4980000000000002</v>
+      </c>
+      <c r="M11" s="9">
+        <v>3.625</v>
+      </c>
       <c r="N11" s="9"/>
-      <c r="O11" s="17">
-        <v>38.472000000000001</v>
-      </c>
-      <c r="P11" s="17">
-        <v>38.472000000000001</v>
+      <c r="O11" s="15">
+        <v>32</v>
+      </c>
+      <c r="P11" s="15">
+        <v>44.594999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="29">
+      <c r="A12" s="27">
         <v>159</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -1113,21 +1135,21 @@
       <c r="F12" s="9">
         <v>0.7</v>
       </c>
-      <c r="G12" s="41" t="s">
+      <c r="G12" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
       <c r="N12" s="9"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="28">
+      <c r="A13" s="26">
         <v>11606</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1137,7 +1159,7 @@
       <c r="D13" s="9">
         <v>1.8</v>
       </c>
-      <c r="E13" s="18"/>
+      <c r="E13" s="16"/>
       <c r="F13" s="9">
         <v>0.9</v>
       </c>
@@ -1147,7 +1169,7 @@
       <c r="H13" s="9">
         <v>2.4</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="12">
         <v>1.6339999999999999</v>
       </c>
       <c r="J13" s="9">
@@ -1156,18 +1178,20 @@
       <c r="K13" s="9">
         <v>2.2879999999999998</v>
       </c>
-      <c r="L13" s="9"/>
-      <c r="M13" s="34"/>
+      <c r="L13" s="9">
+        <v>1.956</v>
+      </c>
+      <c r="M13" s="12"/>
       <c r="N13" s="9"/>
-      <c r="O13" s="17">
-        <v>4.92</v>
-      </c>
-      <c r="P13" s="17">
-        <v>10.854000000000001</v>
+      <c r="O13" s="15">
+        <v>0</v>
+      </c>
+      <c r="P13" s="15">
+        <v>12.81</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="28">
+      <c r="A14" s="26">
         <v>11614</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1180,7 +1204,7 @@
         <v>1.5</v>
       </c>
       <c r="E14" s="9"/>
-      <c r="F14" s="14">
+      <c r="F14" s="12">
         <v>1.3</v>
       </c>
       <c r="G14" s="9">
@@ -1189,27 +1213,29 @@
       <c r="H14" s="9">
         <v>2.9</v>
       </c>
-      <c r="I14" s="26">
+      <c r="I14" s="24">
         <v>1.681</v>
       </c>
-      <c r="J14" s="31">
+      <c r="J14" s="29">
         <v>2.1549999999999998</v>
       </c>
-      <c r="K14" s="21">
+      <c r="K14" s="19">
         <v>4.1989999999999998</v>
       </c>
-      <c r="L14" s="9"/>
-      <c r="M14" s="12"/>
+      <c r="L14" s="9">
+        <v>2.528</v>
+      </c>
+      <c r="M14" s="13"/>
       <c r="N14" s="9"/>
-      <c r="O14" s="17">
-        <v>14.834999999999999</v>
-      </c>
-      <c r="P14" s="17">
-        <v>31.435000000000002</v>
+      <c r="O14" s="15">
+        <v>0</v>
+      </c>
+      <c r="P14" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="28">
+      <c r="A15" s="26">
         <v>11622</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1227,33 +1253,37 @@
       <c r="F15" s="9">
         <v>2.9</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="12">
         <v>4</v>
       </c>
       <c r="H15" s="9">
         <v>5</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I15" s="12">
         <v>3.0859999999999999</v>
       </c>
       <c r="J15" s="9">
         <v>6.34</v>
       </c>
-      <c r="K15" s="14">
+      <c r="K15" s="12">
         <v>4.2229999999999999</v>
       </c>
-      <c r="L15" s="9"/>
-      <c r="M15" s="12"/>
+      <c r="L15" s="9">
+        <v>4.7359999999999998</v>
+      </c>
+      <c r="M15" s="13">
+        <v>3.444</v>
+      </c>
       <c r="N15" s="9"/>
-      <c r="O15" s="23">
-        <v>12.062999999999999</v>
-      </c>
-      <c r="P15" s="17">
-        <v>20.649000000000001</v>
+      <c r="O15" s="21">
+        <v>1.7</v>
+      </c>
+      <c r="P15" s="15">
+        <v>1.7</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="29">
+      <c r="A16" s="27">
         <v>11721</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1269,31 +1299,35 @@
       <c r="F16" s="9">
         <v>2.6</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G16" s="13">
         <v>2.8</v>
       </c>
       <c r="H16" s="9">
         <v>3</v>
       </c>
-      <c r="I16" s="14"/>
+      <c r="I16" s="12"/>
       <c r="J16" s="9">
         <v>0.56100000000000005</v>
       </c>
       <c r="K16" s="9">
         <v>1.5580000000000001</v>
       </c>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
+      <c r="L16" s="9">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="M16" s="9">
+        <v>0.90800000000000003</v>
+      </c>
       <c r="N16" s="9"/>
-      <c r="O16" s="17">
-        <v>2.1190000000000002</v>
-      </c>
-      <c r="P16" s="17">
-        <v>6.5190000000000001</v>
+      <c r="O16" s="15">
+        <v>3.734</v>
+      </c>
+      <c r="P16" s="15">
+        <v>8.1340000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="28">
+      <c r="A17" s="26">
         <v>11738</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -1302,7 +1336,7 @@
       <c r="C17" s="9">
         <v>1.8</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="12">
         <v>2</v>
       </c>
       <c r="E17" s="9">
@@ -1314,7 +1348,7 @@
       <c r="G17" s="9">
         <v>2.5</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="16">
         <v>2.4</v>
       </c>
       <c r="I17" s="9">
@@ -1323,21 +1357,23 @@
       <c r="J17" s="9">
         <v>2.125</v>
       </c>
-      <c r="K17" s="21">
+      <c r="K17" s="19">
         <v>0.76500000000000001</v>
       </c>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
+      <c r="L17" s="9">
+        <v>1.33</v>
+      </c>
+      <c r="M17" s="12"/>
       <c r="N17" s="9"/>
-      <c r="O17" s="17">
-        <v>6.149</v>
-      </c>
-      <c r="P17" s="17">
-        <v>6.149</v>
+      <c r="O17" s="15">
+        <v>0</v>
+      </c>
+      <c r="P17" s="15">
+        <v>7.4790000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="28">
+      <c r="A18" s="26">
         <v>11746</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -1349,7 +1385,7 @@
       <c r="D18" s="9">
         <v>3.5</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="12">
         <v>2</v>
       </c>
       <c r="F18" s="9">
@@ -1358,30 +1394,34 @@
       <c r="G18" s="9">
         <v>4</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="12">
         <v>4.0999999999999996</v>
       </c>
-      <c r="I18" s="26">
+      <c r="I18" s="24">
         <v>3.51</v>
       </c>
-      <c r="J18" s="15">
+      <c r="J18" s="13">
         <v>1.1850000000000001</v>
       </c>
-      <c r="K18" s="33">
+      <c r="K18" s="30">
         <v>3.871</v>
       </c>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
+      <c r="L18" s="9">
+        <v>2.992</v>
+      </c>
+      <c r="M18" s="12">
+        <v>1.9390000000000001</v>
+      </c>
       <c r="N18" s="9"/>
-      <c r="O18" s="17">
-        <v>4.4710000000000001</v>
-      </c>
-      <c r="P18" s="17">
-        <v>4.4710000000000001</v>
+      <c r="O18" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="P18" s="15">
+        <v>9.402000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="28">
+      <c r="A19" s="26">
         <v>11754</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -1390,7 +1430,7 @@
       <c r="C19" s="9">
         <v>3</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="12">
         <v>2.6</v>
       </c>
       <c r="E19" s="9">
@@ -1399,7 +1439,7 @@
       <c r="F19" s="9">
         <v>1.7</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="13">
         <v>2.2000000000000002</v>
       </c>
       <c r="H19" s="9">
@@ -1408,24 +1448,28 @@
       <c r="I19" s="9">
         <v>2.3159999999999998</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="12">
         <v>2.71</v>
       </c>
-      <c r="K19" s="33">
+      <c r="K19" s="30">
         <v>1.532</v>
       </c>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
+      <c r="L19" s="9">
+        <v>2.1459999999999999</v>
+      </c>
+      <c r="M19" s="12">
+        <v>1.554</v>
+      </c>
       <c r="N19" s="9"/>
-      <c r="O19" s="17">
-        <v>2.9319999999999999</v>
-      </c>
-      <c r="P19" s="17">
-        <v>10.058</v>
+      <c r="O19" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="P19" s="15">
+        <v>13.758000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="28">
+      <c r="A20" s="26">
         <v>11771</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -1446,7 +1490,7 @@
       <c r="G20" s="9">
         <v>2</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="12">
         <v>2</v>
       </c>
       <c r="I20" s="9">
@@ -1455,21 +1499,25 @@
       <c r="J20" s="9">
         <v>2.258</v>
       </c>
-      <c r="K20" s="14">
+      <c r="K20" s="12">
         <v>1.782</v>
       </c>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
+      <c r="L20" s="9">
+        <v>1.66</v>
+      </c>
+      <c r="M20" s="9">
+        <v>0.76</v>
+      </c>
       <c r="N20" s="9"/>
-      <c r="O20" s="17">
-        <v>7.2189999999999994</v>
-      </c>
-      <c r="P20" s="17">
-        <v>15.919</v>
+      <c r="O20" s="15">
+        <v>3.3600000000000003</v>
+      </c>
+      <c r="P20" s="15">
+        <v>18.339000000000002</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="28">
+      <c r="A21" s="26">
         <v>11789</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -1481,7 +1529,7 @@
       <c r="D21" s="9">
         <v>2.5</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="12">
         <v>2.8</v>
       </c>
       <c r="F21" s="9">
@@ -1490,7 +1538,7 @@
       <c r="G21" s="9">
         <v>2.4</v>
       </c>
-      <c r="H21" s="21">
+      <c r="H21" s="19">
         <v>3.3</v>
       </c>
       <c r="I21" s="9">
@@ -1499,21 +1547,25 @@
       <c r="J21" s="9">
         <v>1.302</v>
       </c>
-      <c r="K21" s="15">
+      <c r="K21" s="13">
         <v>1.0900000000000001</v>
       </c>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="17">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="P21" s="17">
-        <v>1.0900000000000001</v>
+      <c r="L21" s="9">
+        <v>2.133</v>
+      </c>
+      <c r="M21" s="9">
+        <v>2.1880000000000002</v>
+      </c>
+      <c r="N21" s="43"/>
+      <c r="O21" s="15">
+        <v>5.4109999999999996</v>
+      </c>
+      <c r="P21" s="15">
+        <v>5.4109999999999996</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="28">
+      <c r="A22" s="26">
         <v>11801</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -1522,7 +1574,7 @@
       <c r="C22" s="9">
         <v>2.4</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="13">
         <v>1.6</v>
       </c>
       <c r="E22" s="9">
@@ -1534,28 +1586,30 @@
       <c r="G22" s="9">
         <v>3</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H22" s="12">
         <v>3.4</v>
       </c>
-      <c r="I22" s="14">
+      <c r="I22" s="12">
         <v>5.758</v>
       </c>
-      <c r="J22" s="31">
+      <c r="J22" s="29">
         <v>2.7810000000000001</v>
       </c>
       <c r="K22" s="9"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="9"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="9">
+        <v>0.65600000000000003</v>
+      </c>
       <c r="N22" s="9"/>
-      <c r="O22" s="17">
-        <v>0</v>
-      </c>
-      <c r="P22" s="17">
-        <v>0</v>
+      <c r="O22" s="15">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="P22" s="15">
+        <v>0.65600000000000003</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="28">
+      <c r="A23" s="26">
         <v>11819</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -1573,7 +1627,7 @@
       <c r="F23" s="9">
         <v>2</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G23" s="12">
         <v>2</v>
       </c>
       <c r="H23" s="9">
@@ -1582,24 +1636,28 @@
       <c r="I23" s="9">
         <v>2.6349999999999998</v>
       </c>
-      <c r="J23" s="31">
+      <c r="J23" s="29">
         <v>2.5310000000000001</v>
       </c>
-      <c r="K23" s="14">
+      <c r="K23" s="12">
         <v>2.2589999999999999</v>
       </c>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="17">
-        <v>11.025</v>
-      </c>
-      <c r="P23" s="17">
-        <v>19.359000000000002</v>
+      <c r="L23" s="9">
+        <v>2.2080000000000002</v>
+      </c>
+      <c r="M23" s="9">
+        <v>1.298</v>
+      </c>
+      <c r="N23" s="40"/>
+      <c r="O23" s="15">
+        <v>4.6980000000000004</v>
+      </c>
+      <c r="P23" s="15">
+        <v>22.865000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="28">
+      <c r="A24" s="26">
         <v>11827</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -1612,10 +1670,10 @@
       <c r="E24" s="9">
         <v>4.3</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24" s="19">
         <v>3.8</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="16">
         <v>3.1</v>
       </c>
       <c r="H24" s="9">
@@ -1624,30 +1682,34 @@
       <c r="I24" s="9">
         <v>3.4550000000000001</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J24" s="12">
         <v>3.113</v>
       </c>
       <c r="K24" s="9">
         <v>4.3940000000000001</v>
       </c>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="17">
-        <v>5.9939999999999998</v>
-      </c>
-      <c r="P24" s="17">
-        <v>13.762</v>
+      <c r="L24" s="9">
+        <v>2.2949999999999999</v>
+      </c>
+      <c r="M24" s="12">
+        <v>0.17</v>
+      </c>
+      <c r="N24" s="42"/>
+      <c r="O24" s="15">
+        <v>8.4589999999999996</v>
+      </c>
+      <c r="P24" s="15">
+        <v>16.227000000000004</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="28">
+      <c r="A25" s="26">
         <v>12238</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="12">
         <v>0.3</v>
       </c>
       <c r="D25" s="9">
@@ -1662,30 +1724,32 @@
       <c r="G25" s="9">
         <v>2.8</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H25" s="12">
         <v>1.4</v>
       </c>
       <c r="I25" s="9">
         <v>2.3940000000000001</v>
       </c>
-      <c r="J25" s="31">
+      <c r="J25" s="29">
         <v>4.8049999999999997</v>
       </c>
-      <c r="K25" s="34">
+      <c r="K25" s="31">
         <v>2.19</v>
       </c>
-      <c r="L25" s="9"/>
-      <c r="M25" s="12"/>
+      <c r="L25" s="9">
+        <v>2.5539999999999998</v>
+      </c>
+      <c r="M25" s="13"/>
       <c r="N25" s="9"/>
-      <c r="O25" s="17">
-        <v>10.089</v>
-      </c>
-      <c r="P25" s="17">
-        <v>28.888999999999999</v>
+      <c r="O25" s="15">
+        <v>0</v>
+      </c>
+      <c r="P25" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="28">
+      <c r="A26" s="26">
         <v>12246</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -1706,36 +1770,40 @@
       <c r="G26" s="9">
         <v>2.7</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H26" s="12">
         <v>1.7</v>
       </c>
       <c r="I26" s="9">
         <v>3.597</v>
       </c>
-      <c r="J26" s="14">
+      <c r="J26" s="12">
         <v>2.573</v>
       </c>
       <c r="K26" s="9">
         <v>1.05</v>
       </c>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
+      <c r="L26" s="9">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="M26" s="9">
+        <v>1.4850000000000001</v>
+      </c>
       <c r="N26" s="9"/>
-      <c r="O26" s="17">
-        <v>2.35</v>
-      </c>
-      <c r="P26" s="17">
-        <v>17.72</v>
+      <c r="O26" s="15">
+        <v>3.9729999999999999</v>
+      </c>
+      <c r="P26" s="15">
+        <v>19.343</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="28">
+      <c r="A27" s="26">
         <v>12254</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="15"/>
+      <c r="C27" s="13"/>
       <c r="D27" s="9" t="s">
         <v>27</v>
       </c>
@@ -1748,34 +1816,38 @@
       <c r="G27" s="9">
         <v>2.4</v>
       </c>
-      <c r="H27" s="14"/>
+      <c r="H27" s="12"/>
       <c r="I27" s="9">
         <v>2.7429999999999999</v>
       </c>
       <c r="J27" s="9">
         <v>3.2559999999999998</v>
       </c>
-      <c r="K27" s="14">
+      <c r="K27" s="12">
         <v>2.403</v>
       </c>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="17">
-        <v>8.4019999999999992</v>
-      </c>
-      <c r="P27" s="17">
-        <v>15.702</v>
+      <c r="L27" s="9">
+        <v>1.3919999999999999</v>
+      </c>
+      <c r="M27" s="9">
+        <v>2.8660000000000001</v>
+      </c>
+      <c r="N27" s="41"/>
+      <c r="O27" s="15">
+        <v>5.6660000000000004</v>
+      </c>
+      <c r="P27" s="15">
+        <v>19.96</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="29">
+      <c r="A28" s="27">
         <v>12262</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="12">
         <v>0.8</v>
       </c>
       <c r="D28" s="9">
@@ -1793,25 +1865,29 @@
       <c r="H28" s="9">
         <v>1.4</v>
       </c>
-      <c r="I28" s="15"/>
+      <c r="I28" s="13"/>
       <c r="J28" s="9">
         <v>2.4350000000000001</v>
       </c>
       <c r="K28" s="9">
         <v>2.58</v>
       </c>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
+      <c r="L28" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="M28" s="12">
+        <v>0.108</v>
+      </c>
       <c r="N28" s="9"/>
-      <c r="O28" s="17">
-        <v>5.0150000000000006</v>
-      </c>
-      <c r="P28" s="17">
-        <v>5.0150000000000006</v>
+      <c r="O28" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="P28" s="15">
+        <v>6.6230000000000002</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="28">
+      <c r="A29" s="26">
         <v>12271</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -1820,13 +1896,13 @@
       <c r="C29" s="9">
         <v>1.4</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="13">
         <v>0.2</v>
       </c>
       <c r="E29" s="9">
         <v>2.4</v>
       </c>
-      <c r="F29" s="14">
+      <c r="F29" s="12">
         <v>1.1000000000000001</v>
       </c>
       <c r="G29" s="9">
@@ -1835,7 +1911,7 @@
       <c r="H29" s="9">
         <v>2.6</v>
       </c>
-      <c r="I29" s="15">
+      <c r="I29" s="13">
         <v>0.16900000000000001</v>
       </c>
       <c r="J29" s="9">
@@ -1844,18 +1920,22 @@
       <c r="K29" s="9">
         <v>1.04</v>
       </c>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
+      <c r="L29" s="9">
+        <v>1.5740000000000001</v>
+      </c>
+      <c r="M29" s="12">
+        <v>1.204</v>
+      </c>
       <c r="N29" s="9"/>
-      <c r="O29" s="17">
-        <v>4.1690000000000005</v>
-      </c>
-      <c r="P29" s="17">
-        <v>4.1690000000000005</v>
+      <c r="O29" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="P29" s="15">
+        <v>6.9470000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="28">
+      <c r="A30" s="26">
         <v>12289</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -1872,30 +1952,34 @@
       <c r="G30" s="9">
         <v>4.0999999999999996</v>
       </c>
-      <c r="H30" s="14">
+      <c r="H30" s="12">
         <v>2.5</v>
       </c>
-      <c r="I30" s="15">
+      <c r="I30" s="13">
         <v>2.6120000000000001</v>
       </c>
       <c r="J30" s="9">
         <v>5.0149999999999997</v>
       </c>
-      <c r="K30" s="14">
+      <c r="K30" s="12">
         <v>1.5740000000000001</v>
       </c>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="17">
-        <v>7.8889999999999993</v>
-      </c>
-      <c r="P30" s="17">
-        <v>7.8889999999999993</v>
+      <c r="L30" s="9">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="M30" s="9">
+        <v>3.5270000000000001</v>
+      </c>
+      <c r="N30" s="42"/>
+      <c r="O30" s="15">
+        <v>5.4269999999999996</v>
+      </c>
+      <c r="P30" s="15">
+        <v>12.526</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="28">
+      <c r="A31" s="26">
         <v>12301</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -1908,7 +1992,7 @@
       <c r="E31" s="9">
         <v>2.5</v>
       </c>
-      <c r="F31" s="14">
+      <c r="F31" s="12">
         <v>2.8</v>
       </c>
       <c r="G31" s="9">
@@ -1917,31 +2001,35 @@
       <c r="H31" s="9">
         <v>0.9</v>
       </c>
-      <c r="I31" s="14">
+      <c r="I31" s="12">
         <v>3.6869999999999998</v>
       </c>
       <c r="J31" s="9">
         <v>1.522</v>
       </c>
       <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="17">
-        <v>3.3220000000000001</v>
-      </c>
-      <c r="P31" s="17">
-        <v>17.209</v>
+      <c r="L31" s="9">
+        <v>1.994</v>
+      </c>
+      <c r="M31" s="12">
+        <v>2.2050000000000001</v>
+      </c>
+      <c r="N31" s="41"/>
+      <c r="O31" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P31" s="15">
+        <v>21.408000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="28">
+      <c r="A32" s="26">
         <v>12319</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="15">
+      <c r="C32" s="13">
         <v>2.7</v>
       </c>
       <c r="D32" s="9">
@@ -1956,7 +2044,7 @@
       <c r="G32" s="9">
         <v>4.5</v>
       </c>
-      <c r="H32" s="14">
+      <c r="H32" s="12">
         <v>3.7</v>
       </c>
       <c r="I32" s="9">
@@ -1965,27 +2053,31 @@
       <c r="J32" s="9">
         <v>6.4889999999999999</v>
       </c>
-      <c r="K32" s="34">
+      <c r="K32" s="31">
         <v>3.3940000000000001</v>
       </c>
-      <c r="L32" s="32"/>
-      <c r="M32" s="9"/>
+      <c r="L32" s="33">
+        <v>4.1890000000000001</v>
+      </c>
+      <c r="M32" s="13">
+        <v>1.2430000000000001</v>
+      </c>
       <c r="N32" s="9"/>
-      <c r="O32" s="17">
-        <v>14.988999999999999</v>
-      </c>
-      <c r="P32" s="17">
-        <v>31.088999999999999</v>
+      <c r="O32" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="P32" s="15">
+        <v>0.6</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="28">
+      <c r="A33" s="26">
         <v>12327</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="15">
+      <c r="C33" s="13">
         <v>2.9</v>
       </c>
       <c r="D33" s="9">
@@ -2000,7 +2092,7 @@
       <c r="G33" s="9">
         <v>4.0999999999999996</v>
       </c>
-      <c r="H33" s="14">
+      <c r="H33" s="12">
         <v>5.6</v>
       </c>
       <c r="I33" s="9">
@@ -2009,27 +2101,31 @@
       <c r="J33" s="9">
         <v>6.218</v>
       </c>
-      <c r="K33" s="35">
+      <c r="K33" s="32">
         <v>3.7149999999999999</v>
       </c>
-      <c r="L33" s="15"/>
-      <c r="M33" s="9"/>
+      <c r="L33" s="13">
+        <v>3.8130000000000002</v>
+      </c>
+      <c r="M33" s="9">
+        <v>2.4900000000000002</v>
+      </c>
       <c r="N33" s="9"/>
-      <c r="O33" s="17">
-        <v>0</v>
-      </c>
-      <c r="P33" s="17">
-        <v>0</v>
+      <c r="O33" s="15">
+        <v>6.3030000000000008</v>
+      </c>
+      <c r="P33" s="15">
+        <v>6.3030000000000008</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="28">
+      <c r="A34" s="26">
         <v>12335</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="14">
+      <c r="C34" s="12">
         <v>2.9</v>
       </c>
       <c r="D34" s="9">
@@ -2041,10 +2137,10 @@
       <c r="F34" s="9">
         <v>2.5</v>
       </c>
-      <c r="G34" s="14">
+      <c r="G34" s="12">
         <v>4.4000000000000004</v>
       </c>
-      <c r="H34" s="15">
+      <c r="H34" s="13">
         <v>3.7</v>
       </c>
       <c r="I34" s="9">
@@ -2053,27 +2149,31 @@
       <c r="J34" s="9">
         <v>6.1479999999999997</v>
       </c>
-      <c r="K34" s="14">
+      <c r="K34" s="12">
         <v>4.7430000000000003</v>
       </c>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
+      <c r="L34" s="9">
+        <v>3.3420000000000001</v>
+      </c>
+      <c r="M34" s="9">
+        <v>3.1909999999999998</v>
+      </c>
       <c r="N34" s="9"/>
-      <c r="O34" s="17">
-        <v>15.875999999999999</v>
-      </c>
-      <c r="P34" s="17">
-        <v>15.875999999999999</v>
+      <c r="O34" s="15">
+        <v>8.891</v>
+      </c>
+      <c r="P34" s="15">
+        <v>22.408999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="28">
+      <c r="A35" s="26">
         <v>12343</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="14">
+      <c r="C35" s="12">
         <v>4</v>
       </c>
       <c r="D35" s="9">
@@ -2085,10 +2185,10 @@
       <c r="F35" s="9">
         <v>3.1</v>
       </c>
-      <c r="G35" s="23">
+      <c r="G35" s="21">
         <v>4.0999999999999996</v>
       </c>
-      <c r="H35" s="15">
+      <c r="H35" s="13">
         <v>4.3</v>
       </c>
       <c r="I35" s="9">
@@ -2100,53 +2200,61 @@
       <c r="K35" s="9">
         <v>4.3259999999999996</v>
       </c>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
+      <c r="L35" s="9">
+        <v>3.3570000000000002</v>
+      </c>
+      <c r="M35" s="9">
+        <v>3.07</v>
+      </c>
       <c r="N35" s="9"/>
-      <c r="O35" s="17">
-        <v>12.856000000000002</v>
-      </c>
-      <c r="P35" s="17">
-        <v>12.856000000000002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="28">
+      <c r="O35" s="15">
+        <v>19.283000000000001</v>
+      </c>
+      <c r="P35" s="15">
+        <v>19.283000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="26">
         <v>12350</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F36" s="20">
+      <c r="F36" s="18">
         <v>3.6</v>
       </c>
-      <c r="G36" s="22">
+      <c r="G36" s="20">
         <v>3.3</v>
       </c>
-      <c r="H36" s="20">
+      <c r="H36" s="18">
         <v>2.8</v>
       </c>
-      <c r="I36" s="14">
+      <c r="I36" s="12">
         <v>4.867</v>
       </c>
-      <c r="J36" s="30">
+      <c r="J36" s="28">
         <v>5.8440000000000003</v>
       </c>
-      <c r="K36" s="30">
+      <c r="K36" s="28">
         <v>4.33</v>
       </c>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="30">
-        <v>12.674000000000001</v>
-      </c>
-      <c r="P36" s="30">
-        <v>17.841000000000001</v>
+      <c r="L36" s="28">
+        <v>3.7629999999999999</v>
+      </c>
+      <c r="M36" s="28">
+        <v>2.944</v>
+      </c>
+      <c r="N36" s="28"/>
+      <c r="O36" s="28">
+        <v>19.381</v>
+      </c>
+      <c r="P36" s="28">
+        <v>24.547999999999998</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="28">
+      <c r="A37" s="26">
         <v>13064</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -2155,7 +2263,7 @@
       <c r="C37" s="9">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D37" s="12">
         <v>0.7</v>
       </c>
       <c r="E37" s="9">
@@ -2164,7 +2272,7 @@
       <c r="F37" s="9">
         <v>3.8</v>
       </c>
-      <c r="G37" s="15">
+      <c r="G37" s="13">
         <v>3.1</v>
       </c>
       <c r="H37" s="9">
@@ -2173,30 +2281,34 @@
       <c r="I37" s="9">
         <v>1.631</v>
       </c>
-      <c r="J37" s="14">
+      <c r="J37" s="12">
         <v>2.6789999999999998</v>
       </c>
-      <c r="K37" s="33">
+      <c r="K37" s="30">
         <v>2.0259999999999998</v>
       </c>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
+      <c r="L37" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="M37" s="12">
+        <v>1.0620000000000001</v>
+      </c>
       <c r="N37" s="9"/>
-      <c r="O37" s="17">
-        <v>3.4259999999999997</v>
-      </c>
-      <c r="P37" s="17">
-        <v>10.936</v>
+      <c r="O37" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="P37" s="15">
+        <v>13.761999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="28">
+      <c r="A38" s="26">
         <v>13072</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="14">
+      <c r="C38" s="12">
         <v>0.5</v>
       </c>
       <c r="D38" s="9">
@@ -2208,10 +2320,10 @@
       <c r="F38" s="9">
         <v>2</v>
       </c>
-      <c r="G38" s="24">
+      <c r="G38" s="22">
         <v>1.4</v>
       </c>
-      <c r="H38" s="23">
+      <c r="H38" s="21">
         <v>1.3</v>
       </c>
       <c r="I38" s="9">
@@ -2223,18 +2335,22 @@
       <c r="K38" s="9">
         <v>1.278</v>
       </c>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
+      <c r="L38" s="9">
+        <v>2.2789999999999999</v>
+      </c>
+      <c r="M38" s="13">
+        <v>1.3759999999999999</v>
+      </c>
       <c r="N38" s="9"/>
-      <c r="O38" s="17">
-        <v>6.2270000000000003</v>
-      </c>
-      <c r="P38" s="17">
-        <v>22.926999999999996</v>
+      <c r="O38" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="P38" s="15">
+        <v>0.7</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="28">
+      <c r="A39" s="26">
         <v>14915</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -2267,74 +2383,78 @@
       <c r="K39" s="9">
         <v>0.4</v>
       </c>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
+      <c r="L39" s="9">
+        <v>0.436</v>
+      </c>
+      <c r="M39" s="9">
+        <v>0.155</v>
+      </c>
       <c r="N39" s="9"/>
-      <c r="O39" s="17">
-        <v>4.8460000000000001</v>
-      </c>
-      <c r="P39" s="17">
-        <v>4.8460000000000001</v>
+      <c r="O39" s="15">
+        <v>5.4370000000000003</v>
+      </c>
+      <c r="P39" s="15">
+        <v>5.4370000000000003</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="38" t="s">
+      <c r="A40" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="37"/>
-      <c r="C40" s="17">
+      <c r="B40" s="35"/>
+      <c r="C40" s="15">
         <f t="shared" ref="C40:N40" si="1">SUM(C9:C39)</f>
         <v>48.400000000000006</v>
       </c>
-      <c r="D40" s="17">
+      <c r="D40" s="15">
         <f t="shared" si="1"/>
         <v>50.300000000000004</v>
       </c>
-      <c r="E40" s="17">
+      <c r="E40" s="15">
         <f t="shared" si="1"/>
         <v>68.599999999999994</v>
       </c>
-      <c r="F40" s="17">
+      <c r="F40" s="15">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="G40" s="17">
+      <c r="G40" s="15">
         <f t="shared" si="1"/>
         <v>81.299999999999983</v>
       </c>
-      <c r="H40" s="17">
+      <c r="H40" s="15">
         <f t="shared" si="1"/>
         <v>75.999999999999986</v>
       </c>
-      <c r="I40" s="17">
+      <c r="I40" s="15">
         <f t="shared" si="1"/>
         <v>77.781999999999996</v>
       </c>
-      <c r="J40" s="17">
+      <c r="J40" s="15">
         <f t="shared" si="1"/>
         <v>90.897000000000006</v>
       </c>
-      <c r="K40" s="17">
+      <c r="K40" s="15">
         <f t="shared" si="1"/>
         <v>69.534999999999997</v>
       </c>
-      <c r="L40" s="17">
+      <c r="L40" s="15">
+        <f t="shared" si="1"/>
+        <v>64.89200000000001</v>
+      </c>
+      <c r="M40" s="15">
+        <f t="shared" si="1"/>
+        <v>47.396000000000008</v>
+      </c>
+      <c r="N40" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M40" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N40" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O40" s="36">
+      <c r="O40" s="34">
         <f>SUM(C40:N40)</f>
-        <v>627.81399999999996</v>
-      </c>
-      <c r="P40" s="37"/>
+        <v>740.10199999999998</v>
+      </c>
+      <c r="P40" s="35"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
@@ -2354,11 +2474,11 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
-      <c r="B42" s="38" t="s">
+      <c r="B42" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
@@ -2372,11 +2492,11 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
-      <c r="B43" s="38" t="s">
+      <c r="B43" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
@@ -2390,11 +2510,11 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
-      <c r="B44" s="38" t="s">
+      <c r="B44" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
@@ -2408,11 +2528,11 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
-      <c r="B45" s="38" t="s">
+      <c r="B45" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
